--- a/medicine/Psychotrope/Cuillère_à_matcha/Cuillère_à_matcha.xlsx
+++ b/medicine/Psychotrope/Cuillère_à_matcha/Cuillère_à_matcha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuill%C3%A8re_%C3%A0_matcha</t>
+          <t>Cuillère_à_matcha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cuillère à matcha, écope à thé ou chashaku, est un ustensile utilisé dans la cérémonie du thé au Japon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cuill%C3%A8re_%C3%A0_matcha</t>
+          <t>Cuillère_à_matcha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme japonais de l'ustensile est 茶杓 (chashaku?), composé des kanjis 茶 (cha, « thé ») et 杓 (shaku, « cuillère »).
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cuill%C3%A8re_%C3%A0_matcha</t>
+          <t>Cuillère_à_matcha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ustensile est constitué d'une seule pièce de bambou, possédant un nodule vers son milieu et courbée à son extrémité la plus large. Elle sert à transférer le thé de la boîte à thé au bol à thé.
 </t>
